--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -310,119 +310,125 @@
     <t>Report_attachment_path</t>
   </si>
   <si>
+    <t>Automation- International NM-Workflow Status</t>
+  </si>
+  <si>
+    <t>QC_Type</t>
+  </si>
+  <si>
+    <t>QC_Aspect Ratio</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>16:9 FULL FRAME</t>
+  </si>
+  <si>
+    <t>Stereo Left</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Stereo Right</t>
+  </si>
+  <si>
+    <t>TRACK*</t>
+  </si>
+  <si>
+    <t>ORIGINAL AUDIO*</t>
+  </si>
+  <si>
+    <t>Segment_Type1</t>
+  </si>
+  <si>
+    <t>Segment_Type2</t>
+  </si>
+  <si>
+    <t>Keywords1</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Keywords2</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Segment_Type3</t>
+  </si>
+  <si>
+    <t>Keywords3</t>
+  </si>
+  <si>
+    <t>Description3</t>
+  </si>
+  <si>
+    <t>Segment_Type4</t>
+  </si>
+  <si>
+    <t>Keywords4</t>
+  </si>
+  <si>
+    <t>Description4</t>
+  </si>
+  <si>
+    <t>Technical (TEC)</t>
+  </si>
+  <si>
+    <t>TECHNICAL BLACK</t>
+  </si>
+  <si>
+    <t>Programme Black (BKP)</t>
+  </si>
+  <si>
+    <t>Opening titles Generic (OTG</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Desc added</t>
+  </si>
+  <si>
+    <t>"Closing Titles Generic (CTG)"</t>
+  </si>
+  <si>
+    <t>BS_Segments</t>
+  </si>
+  <si>
+    <t>D:\International_Workflow\NM_BreakStructure_Task\Report\Mail_Attachment\FinalReport.xlsx</t>
+  </si>
+  <si>
+    <t>D:\International_Workflow\NM_BreakStructure_Task\Report\FinalReport.xlsx</t>
+  </si>
+  <si>
     <t>Hi All,
-Please find the attached automation report.
+Please find the attached automation report for International Break Structure Task.
 Regards,
 QA Team</t>
   </si>
   <si>
-    <t>mansurabegum.tatwanagi@primefocus.com</t>
-  </si>
-  <si>
-    <t>D:\International_Workflow\NM_Workfow-Till_ALC\Report\FinalReport.xlsx</t>
-  </si>
-  <si>
-    <t>D:\International_Workflow\NM_Workfow-Till_ALC\Report\Mail_Attachment\FinalReport.xlsx</t>
-  </si>
-  <si>
-    <t>Automation- International NM-Workflow Status</t>
-  </si>
-  <si>
-    <t>QC_Type</t>
-  </si>
-  <si>
-    <t>QC_Aspect Ratio</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>16:9 FULL FRAME</t>
-  </si>
-  <si>
-    <t>Stereo Left</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Stereo Right</t>
-  </si>
-  <si>
-    <t>TRACK*</t>
-  </si>
-  <si>
-    <t>ORIGINAL AUDIO*</t>
-  </si>
-  <si>
-    <t>121265-30</t>
-  </si>
-  <si>
-    <t>Segment_Type1</t>
-  </si>
-  <si>
-    <t>Segment_Type2</t>
-  </si>
-  <si>
-    <t>Keywords1</t>
-  </si>
-  <si>
-    <t>Description1</t>
-  </si>
-  <si>
-    <t>Keywords2</t>
-  </si>
-  <si>
-    <t>Description2</t>
-  </si>
-  <si>
-    <t>Segment_Type3</t>
-  </si>
-  <si>
-    <t>Keywords3</t>
-  </si>
-  <si>
-    <t>Description3</t>
-  </si>
-  <si>
-    <t>Segment_Type4</t>
-  </si>
-  <si>
-    <t>Keywords4</t>
-  </si>
-  <si>
-    <t>Description4</t>
-  </si>
-  <si>
-    <t>Technical (TEC)</t>
-  </si>
-  <si>
-    <t>TECHNICAL BLACK</t>
-  </si>
-  <si>
-    <t>Programme Black (BKP)</t>
-  </si>
-  <si>
-    <t>Opening titles Generic (OTG</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>Programme</t>
-  </si>
-  <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>Desc added</t>
+    <t>mansurabegum.tatwanagi@primefocus.com;sowmya.jagadish@primefocus.com;bharath.doddagoudar@primefocus.com;manohar.r@primefocus.com;aditya.kulshreshtha@primefocus.com;vamsikrishna.g@primefocus.com;madhweshdas.cv@primefocus.com</t>
+  </si>
+  <si>
+    <t>121265-32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -435,21 +441,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -471,11 +465,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,24 +487,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -790,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +938,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -965,7 +954,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,10 +967,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,77 +983,85 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="78" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="7"/>
+    </row>
+    <row r="79" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3442,7 +3439,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>82</v>
@@ -3454,7 +3451,7 @@
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3468,10 +3465,10 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3485,10 +3482,10 @@
         <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3502,7 +3499,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>67</v>
@@ -3519,7 +3516,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>67</v>
@@ -3536,7 +3533,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>67</v>
@@ -3553,7 +3550,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>67</v>
@@ -3570,7 +3567,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>67</v>
@@ -3587,7 +3584,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>67</v>
@@ -3604,7 +3601,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>67</v>
@@ -3621,7 +3618,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>67</v>
@@ -3638,7 +3635,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>67</v>
@@ -3655,7 +3652,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>67</v>
@@ -3672,7 +3669,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>67</v>
@@ -3689,7 +3686,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>67</v>
@@ -3706,7 +3703,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>67</v>
@@ -3723,7 +3720,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>67</v>
@@ -3751,7 +3748,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>82</v>
@@ -3763,7 +3760,7 @@
         <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3777,10 +3774,10 @@
         <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,10 +3791,10 @@
         <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3811,7 +3808,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>67</v>
@@ -3828,7 +3825,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>67</v>
@@ -3845,7 +3842,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>67</v>
@@ -3862,7 +3859,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>67</v>
@@ -3879,7 +3876,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>67</v>
@@ -3896,7 +3893,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>67</v>
@@ -3909,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,98 +3920,103 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
